--- a/Excel - Sales Dashboard.xlsx
+++ b/Excel - Sales Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Google Drive\GitHub\Excel-Sales_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC41F84-1B6A-4F70-9579-DBC79D1FBE5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249AAF51-4A90-4C40-8125-6E93937DFAC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="702" activeTab="4" xr2:uid="{100ED8EA-C2B6-46A4-AE4B-962ED0DA143E}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -167,7 +167,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -258,23 +258,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -283,48 +283,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="189">
+  <dxfs count="242">
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -342,19 +303,19 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -372,10 +333,13 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -393,19 +357,19 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -423,10 +387,10 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -444,19 +408,19 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -474,10 +438,10 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -495,19 +459,19 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -525,10 +489,10 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -546,19 +510,19 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -576,10 +540,10 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -597,19 +561,19 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -627,10 +591,13 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -648,19 +615,19 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -678,10 +645,13 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -699,19 +669,19 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -729,10 +699,13 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -750,19 +723,19 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -780,10 +753,13 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -801,7 +777,19 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -819,25 +807,196 @@
       <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="left"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -879,13 +1038,13 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Branco" pivot="0" table="0" count="3" xr9:uid="{18607465-D446-4072-880E-179447131AE9}">
-      <tableStyleElement type="wholeTable" dxfId="188"/>
-      <tableStyleElement type="headerRow" dxfId="187"/>
+      <tableStyleElement type="wholeTable" dxfId="241"/>
+      <tableStyleElement type="headerRow" dxfId="240"/>
     </tableStyle>
     <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="1" xr9:uid="{519A0827-96A6-4D33-8AFC-34844A842554}"/>
     <tableStyle name="Personallizada" pivot="0" table="0" count="8" xr9:uid="{EC1103A9-1657-49BB-944A-324D68A5B9E1}">
-      <tableStyleElement type="wholeTable" dxfId="186"/>
-      <tableStyleElement type="headerRow" dxfId="185"/>
+      <tableStyleElement type="wholeTable" dxfId="239"/>
+      <tableStyleElement type="headerRow" dxfId="238"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1058,7 +1217,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rio de Janeiro</c:v>
+                  <c:v>São Paulo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1164,22 +1323,22 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>235000</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36000</c:v>
+                  <c:v>146000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92000</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117000</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>245000</c:v>
+                  <c:v>232000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27000</c:v>
+                  <c:v>59000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,7 +1889,17 @@
                 <a:fld id="{22702390-48A2-4F87-804F-0EFF121B92D2}" type="PERCENTAGE">
                   <a:rPr lang="en-US"/>
                   <a:pPr>
-                    <a:defRPr sz="1200" b="0" baseline="0"/>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
                   </a:pPr>
                   <a:t>[PERCENTAGE]</a:t>
                 </a:fld>
@@ -1817,7 +1986,17 @@
                 <a:fld id="{44E5B037-6A2D-426B-B673-C34C52373F67}" type="PERCENTAGE">
                   <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
                   <a:pPr>
-                    <a:defRPr sz="1200" b="0" baseline="0"/>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
                   </a:pPr>
                   <a:t>[PERCENTAGE]</a:t>
                 </a:fld>
@@ -1910,7 +2089,17 @@
                 <a:fld id="{3E899295-BCE9-4A51-8961-E92EBE0C64B4}" type="PERCENTAGE">
                   <a:rPr lang="en-US" baseline="0"/>
                   <a:pPr>
-                    <a:defRPr sz="1200" b="0" baseline="0"/>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
                   </a:pPr>
                   <a:t>[PERCENTAGE]</a:t>
                 </a:fld>
@@ -2078,7 +2267,7 @@
                 <a:fld id="{2E7C4491-6191-4785-B29A-6AE00B4CD91D}" type="PERCENTAGE">
                   <a:rPr lang="en-US" baseline="0"/>
                   <a:pPr>
-                    <a:defRPr sz="1200" baseline="0"/>
+                    <a:defRPr sz="1200"/>
                   </a:pPr>
                   <a:t>[PERCENTAGE]</a:t>
                 </a:fld>
@@ -2178,7 +2367,7 @@
                 <a:fld id="{823C3802-AA87-404B-B621-C0B980DF1478}" type="PERCENTAGE">
                   <a:rPr lang="en-US" baseline="0"/>
                   <a:pPr>
-                    <a:defRPr sz="1200" baseline="0"/>
+                    <a:defRPr sz="1200"/>
                   </a:pPr>
                   <a:t>[PERCENTAGE]</a:t>
                 </a:fld>
@@ -2276,7 +2465,7 @@
                 <a:fld id="{F9EF8B4E-5CD8-43E0-8CF6-DF7AFE1E32A8}" type="PERCENTAGE">
                   <a:rPr lang="en-US" baseline="0"/>
                   <a:pPr>
-                    <a:defRPr sz="1200" baseline="0"/>
+                    <a:defRPr sz="1200"/>
                   </a:pPr>
                   <a:t>[PERCENTAGE]</a:t>
                 </a:fld>
@@ -2418,12 +2607,11 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rio de Janeiro</c:v>
+                  <c:v>São Paulo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:explosion val="3"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -2440,11 +2628,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8C32-440E-8524-B224B21C06F8}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2460,11 +2643,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-8C32-440E-8524-B224B21C06F8}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2482,11 +2660,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-8C32-440E-8524-B224B21C06F8}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -2515,9 +2688,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-8C32-440E-8524-B224B21C06F8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2548,9 +2718,6 @@
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8C32-440E-8524-B224B21C06F8}"/>
-                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2579,9 +2746,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-8C32-440E-8524-B224B21C06F8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2620,7 +2784,21 @@
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -2659,20 +2837,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>165</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8C32-440E-8524-B224B21C06F8}"/>
+              <c16:uniqueId val="{00000007-5865-431A-A427-EDBB7DE3D66C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2683,7 +2861,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
         <c:holeSize val="50"/>
@@ -2704,8 +2882,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.9351168368942815E-2"/>
           <c:y val="0.85597246435020624"/>
-          <c:w val="0.71231092066943424"/>
-          <c:h val="0.10363556289686406"/>
+          <c:w val="0.75383755066590719"/>
+          <c:h val="0.14402753564979373"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3426,7 +3604,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rio de Janeiro</c:v>
+                  <c:v>São Paulo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3529,26 +3707,26 @@
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1137000</c:v>
+                  <c:v>71000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>942000</c:v>
+                  <c:v>167000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1881000</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2279000</c:v>
+                  <c:v>160000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>976000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B7E7-442D-A875-822ED46119E4}"/>
+              <c16:uniqueId val="{00000001-ECC2-47C4-A04B-6D5BC826541C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5248,8 +5426,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Fábrica 1">
@@ -5272,7 +5450,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5362,8 +5540,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Data 1">
@@ -5381,12 +5559,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Data 1"/>
+              <tsle:timeslicer name="Data 1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5429,15 +5607,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:colOff>85724</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5826,7 +6004,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t> $52,742,000 </a:t>
+            <a:pPr/>
+            <a:t> $4,012,000 </a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="2000"/>
         </a:p>
@@ -5897,7 +6076,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>Vendas Rio de Janeiro</a:t>
+            <a:pPr/>
+            <a:t>Vendas São Paulo</a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="1200" b="1"/>
         </a:p>
@@ -5968,7 +6148,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>% Rio de Janeiro</a:t>
+            <a:pPr/>
+            <a:t>% São Paulo</a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="1200" b="1"/>
         </a:p>
@@ -6039,7 +6220,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>Unidades Rio de Janeiro</a:t>
+            <a:pPr/>
+            <a:t>Unidades São Paulo</a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="1200" b="1"/>
         </a:p>
@@ -6110,7 +6292,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>100ml Rio de Janeiro</a:t>
+            <a:pPr/>
+            <a:t>100ml São Paulo</a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="1200" b="1"/>
         </a:p>
@@ -6181,7 +6364,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>200ml Rio de Janeiro</a:t>
+            <a:pPr/>
+            <a:t>200ml São Paulo</a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="1200" b="1"/>
         </a:p>
@@ -6252,7 +6436,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>300ml Rio de Janeiro</a:t>
+            <a:pPr/>
+            <a:t>300ml São Paulo</a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="1200" b="1"/>
         </a:p>
@@ -6323,7 +6508,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>1%</a:t>
+            <a:pPr/>
+            <a:t>13%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="4400" b="1"/>
         </a:p>
@@ -6394,7 +6580,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>501</a:t>
+            <a:pPr/>
+            <a:t>32</a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="4400" b="1"/>
         </a:p>
@@ -6465,7 +6652,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>165</a:t>
+            <a:pPr/>
+            <a:t>8</a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="4400" b="1"/>
         </a:p>
@@ -6536,7 +6724,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>159</a:t>
+            <a:pPr/>
+            <a:t>12</a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="4400" b="1"/>
         </a:p>
@@ -6607,7 +6796,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>177</a:t>
+            <a:pPr/>
+            <a:t>12</a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="4400" b="1"/>
         </a:p>
@@ -6732,7 +6922,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t> $752,000 </a:t>
+            <a:pPr/>
+            <a:t> $535,000 </a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="7200" b="1"/>
         </a:p>
@@ -31412,7 +31603,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1073D98D-505F-4277-97BE-AA8DF2F0306E}" name="analyse1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="5" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1073D98D-505F-4277-97BE-AA8DF2F0306E}" name="analyse1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="5" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField numFmtId="14" showAll="0">
@@ -32452,9 +32643,9 @@
         <item h="1" x="5"/>
         <item h="1" x="3"/>
         <item h="1" x="1"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item h="1" x="2"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -32502,7 +32693,7 @@
   </rowFields>
   <rowItems count="8">
     <i>
-      <x v="3"/>
+      <x v="5"/>
     </i>
     <i r="1">
       <x/>
@@ -32530,10 +32721,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Valor do Pedido" fld="4" baseField="0" baseItem="0" numFmtId="167"/>
+    <dataField name="Sum of Valor do Pedido" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="184">
+    <format dxfId="237">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -32545,18 +32736,18 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="183">
+    <format dxfId="236">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="0" type="dateBetween" evalOrder="-1" id="62" name="Data">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="110" name="Data">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
-            <customFilter operator="greaterThanOrEqual" val="43405"/>
-            <customFilter operator="lessThanOrEqual" val="43524"/>
+            <customFilter operator="greaterThanOrEqual" val="43101"/>
+            <customFilter operator="lessThanOrEqual" val="43190"/>
           </customFilters>
         </filterColumn>
       </autoFilter>
@@ -32579,18 +32770,1048 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2A00A5E-2389-412D-94D9-144E411D2DC8}" name="analyse2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2A00A5E-2389-412D-94D9-144E411D2DC8}" name="analyse2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="5" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0"/>
+    <pivotField numFmtId="14" showAll="0" defaultSubtotal="0">
+      <items count="1027">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+        <item x="413"/>
+        <item x="414"/>
+        <item x="415"/>
+        <item x="416"/>
+        <item x="417"/>
+        <item x="418"/>
+        <item x="419"/>
+        <item x="420"/>
+        <item x="421"/>
+        <item x="422"/>
+        <item x="423"/>
+        <item x="424"/>
+        <item x="425"/>
+        <item x="426"/>
+        <item x="427"/>
+        <item x="428"/>
+        <item x="429"/>
+        <item x="430"/>
+        <item x="431"/>
+        <item x="432"/>
+        <item x="433"/>
+        <item x="434"/>
+        <item x="435"/>
+        <item x="436"/>
+        <item x="437"/>
+        <item x="438"/>
+        <item x="439"/>
+        <item x="440"/>
+        <item x="441"/>
+        <item x="442"/>
+        <item x="443"/>
+        <item x="444"/>
+        <item x="445"/>
+        <item x="446"/>
+        <item x="447"/>
+        <item x="448"/>
+        <item x="449"/>
+        <item x="450"/>
+        <item x="451"/>
+        <item x="452"/>
+        <item x="453"/>
+        <item x="454"/>
+        <item x="455"/>
+        <item x="456"/>
+        <item x="457"/>
+        <item x="458"/>
+        <item x="459"/>
+        <item x="460"/>
+        <item x="461"/>
+        <item x="462"/>
+        <item x="463"/>
+        <item x="464"/>
+        <item x="465"/>
+        <item x="466"/>
+        <item x="467"/>
+        <item x="468"/>
+        <item x="469"/>
+        <item x="470"/>
+        <item x="471"/>
+        <item x="472"/>
+        <item x="473"/>
+        <item x="474"/>
+        <item x="475"/>
+        <item x="476"/>
+        <item x="477"/>
+        <item x="478"/>
+        <item x="479"/>
+        <item x="480"/>
+        <item x="481"/>
+        <item x="482"/>
+        <item x="483"/>
+        <item x="484"/>
+        <item x="485"/>
+        <item x="486"/>
+        <item x="487"/>
+        <item x="488"/>
+        <item x="489"/>
+        <item x="490"/>
+        <item x="491"/>
+        <item x="492"/>
+        <item x="493"/>
+        <item x="494"/>
+        <item x="495"/>
+        <item x="496"/>
+        <item x="497"/>
+        <item x="498"/>
+        <item x="499"/>
+        <item x="500"/>
+        <item x="501"/>
+        <item x="502"/>
+        <item x="503"/>
+        <item x="504"/>
+        <item x="505"/>
+        <item x="506"/>
+        <item x="507"/>
+        <item x="508"/>
+        <item x="509"/>
+        <item x="510"/>
+        <item x="511"/>
+        <item x="512"/>
+        <item x="513"/>
+        <item x="514"/>
+        <item x="515"/>
+        <item x="516"/>
+        <item x="517"/>
+        <item x="518"/>
+        <item x="519"/>
+        <item x="520"/>
+        <item x="521"/>
+        <item x="522"/>
+        <item x="523"/>
+        <item x="524"/>
+        <item x="525"/>
+        <item x="526"/>
+        <item x="527"/>
+        <item x="528"/>
+        <item x="529"/>
+        <item x="530"/>
+        <item x="531"/>
+        <item x="532"/>
+        <item x="533"/>
+        <item x="534"/>
+        <item x="535"/>
+        <item x="536"/>
+        <item x="537"/>
+        <item x="538"/>
+        <item x="539"/>
+        <item x="540"/>
+        <item x="541"/>
+        <item x="542"/>
+        <item x="543"/>
+        <item x="544"/>
+        <item x="545"/>
+        <item x="546"/>
+        <item x="547"/>
+        <item x="548"/>
+        <item x="549"/>
+        <item x="550"/>
+        <item x="551"/>
+        <item x="552"/>
+        <item x="553"/>
+        <item x="554"/>
+        <item x="555"/>
+        <item x="556"/>
+        <item x="557"/>
+        <item x="558"/>
+        <item x="559"/>
+        <item x="560"/>
+        <item x="561"/>
+        <item x="562"/>
+        <item x="563"/>
+        <item x="564"/>
+        <item x="565"/>
+        <item x="566"/>
+        <item x="567"/>
+        <item x="568"/>
+        <item x="569"/>
+        <item x="570"/>
+        <item x="571"/>
+        <item x="572"/>
+        <item x="573"/>
+        <item x="574"/>
+        <item x="575"/>
+        <item x="576"/>
+        <item x="577"/>
+        <item x="578"/>
+        <item x="579"/>
+        <item x="580"/>
+        <item x="581"/>
+        <item x="582"/>
+        <item x="583"/>
+        <item x="584"/>
+        <item x="585"/>
+        <item x="586"/>
+        <item x="587"/>
+        <item x="588"/>
+        <item x="589"/>
+        <item x="590"/>
+        <item x="591"/>
+        <item x="592"/>
+        <item x="593"/>
+        <item x="594"/>
+        <item x="595"/>
+        <item x="596"/>
+        <item x="597"/>
+        <item x="598"/>
+        <item x="599"/>
+        <item x="600"/>
+        <item x="601"/>
+        <item x="602"/>
+        <item x="603"/>
+        <item x="604"/>
+        <item x="605"/>
+        <item x="606"/>
+        <item x="607"/>
+        <item x="608"/>
+        <item x="609"/>
+        <item x="610"/>
+        <item x="611"/>
+        <item x="612"/>
+        <item x="613"/>
+        <item x="614"/>
+        <item x="615"/>
+        <item x="616"/>
+        <item x="617"/>
+        <item x="618"/>
+        <item x="619"/>
+        <item x="620"/>
+        <item x="621"/>
+        <item x="622"/>
+        <item x="623"/>
+        <item x="624"/>
+        <item x="625"/>
+        <item x="626"/>
+        <item x="627"/>
+        <item x="628"/>
+        <item x="629"/>
+        <item x="630"/>
+        <item x="631"/>
+        <item x="632"/>
+        <item x="633"/>
+        <item x="634"/>
+        <item x="635"/>
+        <item x="636"/>
+        <item x="637"/>
+        <item x="638"/>
+        <item x="639"/>
+        <item x="640"/>
+        <item x="641"/>
+        <item x="642"/>
+        <item x="643"/>
+        <item x="644"/>
+        <item x="645"/>
+        <item x="646"/>
+        <item x="647"/>
+        <item x="648"/>
+        <item x="649"/>
+        <item x="650"/>
+        <item x="651"/>
+        <item x="652"/>
+        <item x="653"/>
+        <item x="654"/>
+        <item x="655"/>
+        <item x="656"/>
+        <item x="657"/>
+        <item x="658"/>
+        <item x="659"/>
+        <item x="660"/>
+        <item x="661"/>
+        <item x="662"/>
+        <item x="663"/>
+        <item x="664"/>
+        <item x="665"/>
+        <item x="666"/>
+        <item x="667"/>
+        <item x="668"/>
+        <item x="669"/>
+        <item x="670"/>
+        <item x="671"/>
+        <item x="672"/>
+        <item x="673"/>
+        <item x="674"/>
+        <item x="675"/>
+        <item x="676"/>
+        <item x="677"/>
+        <item x="678"/>
+        <item x="679"/>
+        <item x="680"/>
+        <item x="681"/>
+        <item x="682"/>
+        <item x="683"/>
+        <item x="684"/>
+        <item x="685"/>
+        <item x="686"/>
+        <item x="687"/>
+        <item x="688"/>
+        <item x="689"/>
+        <item x="690"/>
+        <item x="691"/>
+        <item x="692"/>
+        <item x="693"/>
+        <item x="694"/>
+        <item x="695"/>
+        <item x="696"/>
+        <item x="697"/>
+        <item x="698"/>
+        <item x="699"/>
+        <item x="700"/>
+        <item x="701"/>
+        <item x="702"/>
+        <item x="703"/>
+        <item x="704"/>
+        <item x="705"/>
+        <item x="706"/>
+        <item x="707"/>
+        <item x="708"/>
+        <item x="709"/>
+        <item x="710"/>
+        <item x="711"/>
+        <item x="712"/>
+        <item x="713"/>
+        <item x="714"/>
+        <item x="715"/>
+        <item x="716"/>
+        <item x="717"/>
+        <item x="718"/>
+        <item x="719"/>
+        <item x="720"/>
+        <item x="721"/>
+        <item x="722"/>
+        <item x="723"/>
+        <item x="724"/>
+        <item x="725"/>
+        <item x="726"/>
+        <item x="727"/>
+        <item x="728"/>
+        <item x="729"/>
+        <item x="730"/>
+        <item x="731"/>
+        <item x="732"/>
+        <item x="733"/>
+        <item x="734"/>
+        <item x="735"/>
+        <item x="736"/>
+        <item x="737"/>
+        <item x="738"/>
+        <item x="739"/>
+        <item x="740"/>
+        <item x="741"/>
+        <item x="742"/>
+        <item x="743"/>
+        <item x="744"/>
+        <item x="745"/>
+        <item x="746"/>
+        <item x="747"/>
+        <item x="748"/>
+        <item x="749"/>
+        <item x="750"/>
+        <item x="751"/>
+        <item x="752"/>
+        <item x="753"/>
+        <item x="754"/>
+        <item x="755"/>
+        <item x="756"/>
+        <item x="757"/>
+        <item x="758"/>
+        <item x="759"/>
+        <item x="760"/>
+        <item x="761"/>
+        <item x="762"/>
+        <item x="763"/>
+        <item x="764"/>
+        <item x="765"/>
+        <item x="766"/>
+        <item x="767"/>
+        <item x="768"/>
+        <item x="769"/>
+        <item x="770"/>
+        <item x="771"/>
+        <item x="772"/>
+        <item x="773"/>
+        <item x="774"/>
+        <item x="775"/>
+        <item x="776"/>
+        <item x="777"/>
+        <item x="778"/>
+        <item x="779"/>
+        <item x="780"/>
+        <item x="781"/>
+        <item x="782"/>
+        <item x="783"/>
+        <item x="784"/>
+        <item x="785"/>
+        <item x="786"/>
+        <item x="787"/>
+        <item x="788"/>
+        <item x="789"/>
+        <item x="790"/>
+        <item x="791"/>
+        <item x="792"/>
+        <item x="793"/>
+        <item x="794"/>
+        <item x="795"/>
+        <item x="796"/>
+        <item x="797"/>
+        <item x="798"/>
+        <item x="799"/>
+        <item x="800"/>
+        <item x="801"/>
+        <item x="802"/>
+        <item x="803"/>
+        <item x="804"/>
+        <item x="805"/>
+        <item x="806"/>
+        <item x="807"/>
+        <item x="808"/>
+        <item x="809"/>
+        <item x="810"/>
+        <item x="811"/>
+        <item x="812"/>
+        <item x="813"/>
+        <item x="814"/>
+        <item x="815"/>
+        <item x="816"/>
+        <item x="817"/>
+        <item x="818"/>
+        <item x="819"/>
+        <item x="820"/>
+        <item x="821"/>
+        <item x="822"/>
+        <item x="823"/>
+        <item x="824"/>
+        <item x="825"/>
+        <item x="826"/>
+        <item x="827"/>
+        <item x="828"/>
+        <item x="829"/>
+        <item x="830"/>
+        <item x="831"/>
+        <item x="832"/>
+        <item x="833"/>
+        <item x="834"/>
+        <item x="835"/>
+        <item x="836"/>
+        <item x="837"/>
+        <item x="838"/>
+        <item x="839"/>
+        <item x="840"/>
+        <item x="841"/>
+        <item x="842"/>
+        <item x="843"/>
+        <item x="844"/>
+        <item x="845"/>
+        <item x="846"/>
+        <item x="847"/>
+        <item x="848"/>
+        <item x="849"/>
+        <item x="850"/>
+        <item x="851"/>
+        <item x="852"/>
+        <item x="853"/>
+        <item x="854"/>
+        <item x="855"/>
+        <item x="856"/>
+        <item x="857"/>
+        <item x="858"/>
+        <item x="859"/>
+        <item x="860"/>
+        <item x="861"/>
+        <item x="862"/>
+        <item x="863"/>
+        <item x="864"/>
+        <item x="865"/>
+        <item x="866"/>
+        <item x="867"/>
+        <item x="868"/>
+        <item x="869"/>
+        <item x="870"/>
+        <item x="871"/>
+        <item x="872"/>
+        <item x="873"/>
+        <item x="874"/>
+        <item x="875"/>
+        <item x="876"/>
+        <item x="877"/>
+        <item x="878"/>
+        <item x="879"/>
+        <item x="880"/>
+        <item x="881"/>
+        <item x="882"/>
+        <item x="883"/>
+        <item x="884"/>
+        <item x="885"/>
+        <item x="886"/>
+        <item x="887"/>
+        <item x="888"/>
+        <item x="889"/>
+        <item x="890"/>
+        <item x="891"/>
+        <item x="892"/>
+        <item x="893"/>
+        <item x="894"/>
+        <item x="895"/>
+        <item x="896"/>
+        <item x="897"/>
+        <item x="898"/>
+        <item x="899"/>
+        <item x="900"/>
+        <item x="901"/>
+        <item x="902"/>
+        <item x="903"/>
+        <item x="904"/>
+        <item x="905"/>
+        <item x="906"/>
+        <item x="907"/>
+        <item x="908"/>
+        <item x="909"/>
+        <item x="910"/>
+        <item x="911"/>
+        <item x="912"/>
+        <item x="913"/>
+        <item x="914"/>
+        <item x="915"/>
+        <item x="916"/>
+        <item x="917"/>
+        <item x="918"/>
+        <item x="919"/>
+        <item x="920"/>
+        <item x="921"/>
+        <item x="922"/>
+        <item x="923"/>
+        <item x="924"/>
+        <item x="925"/>
+        <item x="926"/>
+        <item x="927"/>
+        <item x="928"/>
+        <item x="929"/>
+        <item x="930"/>
+        <item x="931"/>
+        <item x="932"/>
+        <item x="933"/>
+        <item x="934"/>
+        <item x="935"/>
+        <item x="936"/>
+        <item x="937"/>
+        <item x="938"/>
+        <item x="939"/>
+        <item x="940"/>
+        <item x="941"/>
+        <item x="942"/>
+        <item x="943"/>
+        <item x="944"/>
+        <item x="945"/>
+        <item x="946"/>
+        <item x="947"/>
+        <item x="948"/>
+        <item x="949"/>
+        <item x="950"/>
+        <item x="951"/>
+        <item x="952"/>
+        <item x="953"/>
+        <item x="954"/>
+        <item x="955"/>
+        <item x="956"/>
+        <item x="957"/>
+        <item x="958"/>
+        <item x="959"/>
+        <item x="960"/>
+        <item x="961"/>
+        <item x="962"/>
+        <item x="963"/>
+        <item x="964"/>
+        <item x="965"/>
+        <item x="966"/>
+        <item x="967"/>
+        <item x="968"/>
+        <item x="969"/>
+        <item x="970"/>
+        <item x="971"/>
+        <item x="972"/>
+        <item x="973"/>
+        <item x="974"/>
+        <item x="975"/>
+        <item x="976"/>
+        <item x="977"/>
+        <item x="978"/>
+        <item x="979"/>
+        <item x="980"/>
+        <item x="981"/>
+        <item x="982"/>
+        <item x="983"/>
+        <item x="984"/>
+        <item x="985"/>
+        <item x="986"/>
+        <item x="987"/>
+        <item x="988"/>
+        <item x="989"/>
+        <item x="990"/>
+        <item x="991"/>
+        <item x="992"/>
+        <item x="993"/>
+        <item x="994"/>
+        <item x="995"/>
+        <item x="996"/>
+        <item x="997"/>
+        <item x="998"/>
+        <item x="999"/>
+        <item x="1000"/>
+        <item x="1001"/>
+        <item x="1002"/>
+        <item x="1003"/>
+        <item x="1004"/>
+        <item x="1005"/>
+        <item x="1006"/>
+        <item x="1007"/>
+        <item x="1008"/>
+        <item x="1009"/>
+        <item x="1010"/>
+        <item x="1011"/>
+        <item x="1012"/>
+        <item x="1013"/>
+        <item x="1014"/>
+        <item x="1015"/>
+        <item x="1016"/>
+        <item x="1017"/>
+        <item x="1018"/>
+        <item x="1019"/>
+        <item x="1020"/>
+        <item x="1021"/>
+        <item x="1022"/>
+        <item x="1023"/>
+        <item x="1024"/>
+        <item x="1025"/>
+        <item x="1026"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
       <items count="6">
         <item h="1" x="5"/>
         <item h="1" x="3"/>
         <item h="1" x="1"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item h="1" x="2"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0">
@@ -32635,30 +33856,30 @@
   </colFields>
   <colItems count="1">
     <i>
-      <x v="3"/>
+      <x v="5"/>
     </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Tamanho" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="167">
+    <format dxfId="235">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="168">
+    <format dxfId="234">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="169">
+    <format dxfId="233">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="170">
+    <format dxfId="232">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="171">
+    <format dxfId="231">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -32872,6 +34093,23 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="41" name="Data">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="43101"/>
+            <customFilter operator="lessThanOrEqual" val="43190"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -32884,18 +34122,1049 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CFA8F479-D219-4589-8737-3D1DCE3BAFF5}" name="analyse3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CFA8F479-D219-4589-8737-3D1DCE3BAFF5}" name="analyse3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="5" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="1028">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+        <item x="413"/>
+        <item x="414"/>
+        <item x="415"/>
+        <item x="416"/>
+        <item x="417"/>
+        <item x="418"/>
+        <item x="419"/>
+        <item x="420"/>
+        <item x="421"/>
+        <item x="422"/>
+        <item x="423"/>
+        <item x="424"/>
+        <item x="425"/>
+        <item x="426"/>
+        <item x="427"/>
+        <item x="428"/>
+        <item x="429"/>
+        <item x="430"/>
+        <item x="431"/>
+        <item x="432"/>
+        <item x="433"/>
+        <item x="434"/>
+        <item x="435"/>
+        <item x="436"/>
+        <item x="437"/>
+        <item x="438"/>
+        <item x="439"/>
+        <item x="440"/>
+        <item x="441"/>
+        <item x="442"/>
+        <item x="443"/>
+        <item x="444"/>
+        <item x="445"/>
+        <item x="446"/>
+        <item x="447"/>
+        <item x="448"/>
+        <item x="449"/>
+        <item x="450"/>
+        <item x="451"/>
+        <item x="452"/>
+        <item x="453"/>
+        <item x="454"/>
+        <item x="455"/>
+        <item x="456"/>
+        <item x="457"/>
+        <item x="458"/>
+        <item x="459"/>
+        <item x="460"/>
+        <item x="461"/>
+        <item x="462"/>
+        <item x="463"/>
+        <item x="464"/>
+        <item x="465"/>
+        <item x="466"/>
+        <item x="467"/>
+        <item x="468"/>
+        <item x="469"/>
+        <item x="470"/>
+        <item x="471"/>
+        <item x="472"/>
+        <item x="473"/>
+        <item x="474"/>
+        <item x="475"/>
+        <item x="476"/>
+        <item x="477"/>
+        <item x="478"/>
+        <item x="479"/>
+        <item x="480"/>
+        <item x="481"/>
+        <item x="482"/>
+        <item x="483"/>
+        <item x="484"/>
+        <item x="485"/>
+        <item x="486"/>
+        <item x="487"/>
+        <item x="488"/>
+        <item x="489"/>
+        <item x="490"/>
+        <item x="491"/>
+        <item x="492"/>
+        <item x="493"/>
+        <item x="494"/>
+        <item x="495"/>
+        <item x="496"/>
+        <item x="497"/>
+        <item x="498"/>
+        <item x="499"/>
+        <item x="500"/>
+        <item x="501"/>
+        <item x="502"/>
+        <item x="503"/>
+        <item x="504"/>
+        <item x="505"/>
+        <item x="506"/>
+        <item x="507"/>
+        <item x="508"/>
+        <item x="509"/>
+        <item x="510"/>
+        <item x="511"/>
+        <item x="512"/>
+        <item x="513"/>
+        <item x="514"/>
+        <item x="515"/>
+        <item x="516"/>
+        <item x="517"/>
+        <item x="518"/>
+        <item x="519"/>
+        <item x="520"/>
+        <item x="521"/>
+        <item x="522"/>
+        <item x="523"/>
+        <item x="524"/>
+        <item x="525"/>
+        <item x="526"/>
+        <item x="527"/>
+        <item x="528"/>
+        <item x="529"/>
+        <item x="530"/>
+        <item x="531"/>
+        <item x="532"/>
+        <item x="533"/>
+        <item x="534"/>
+        <item x="535"/>
+        <item x="536"/>
+        <item x="537"/>
+        <item x="538"/>
+        <item x="539"/>
+        <item x="540"/>
+        <item x="541"/>
+        <item x="542"/>
+        <item x="543"/>
+        <item x="544"/>
+        <item x="545"/>
+        <item x="546"/>
+        <item x="547"/>
+        <item x="548"/>
+        <item x="549"/>
+        <item x="550"/>
+        <item x="551"/>
+        <item x="552"/>
+        <item x="553"/>
+        <item x="554"/>
+        <item x="555"/>
+        <item x="556"/>
+        <item x="557"/>
+        <item x="558"/>
+        <item x="559"/>
+        <item x="560"/>
+        <item x="561"/>
+        <item x="562"/>
+        <item x="563"/>
+        <item x="564"/>
+        <item x="565"/>
+        <item x="566"/>
+        <item x="567"/>
+        <item x="568"/>
+        <item x="569"/>
+        <item x="570"/>
+        <item x="571"/>
+        <item x="572"/>
+        <item x="573"/>
+        <item x="574"/>
+        <item x="575"/>
+        <item x="576"/>
+        <item x="577"/>
+        <item x="578"/>
+        <item x="579"/>
+        <item x="580"/>
+        <item x="581"/>
+        <item x="582"/>
+        <item x="583"/>
+        <item x="584"/>
+        <item x="585"/>
+        <item x="586"/>
+        <item x="587"/>
+        <item x="588"/>
+        <item x="589"/>
+        <item x="590"/>
+        <item x="591"/>
+        <item x="592"/>
+        <item x="593"/>
+        <item x="594"/>
+        <item x="595"/>
+        <item x="596"/>
+        <item x="597"/>
+        <item x="598"/>
+        <item x="599"/>
+        <item x="600"/>
+        <item x="601"/>
+        <item x="602"/>
+        <item x="603"/>
+        <item x="604"/>
+        <item x="605"/>
+        <item x="606"/>
+        <item x="607"/>
+        <item x="608"/>
+        <item x="609"/>
+        <item x="610"/>
+        <item x="611"/>
+        <item x="612"/>
+        <item x="613"/>
+        <item x="614"/>
+        <item x="615"/>
+        <item x="616"/>
+        <item x="617"/>
+        <item x="618"/>
+        <item x="619"/>
+        <item x="620"/>
+        <item x="621"/>
+        <item x="622"/>
+        <item x="623"/>
+        <item x="624"/>
+        <item x="625"/>
+        <item x="626"/>
+        <item x="627"/>
+        <item x="628"/>
+        <item x="629"/>
+        <item x="630"/>
+        <item x="631"/>
+        <item x="632"/>
+        <item x="633"/>
+        <item x="634"/>
+        <item x="635"/>
+        <item x="636"/>
+        <item x="637"/>
+        <item x="638"/>
+        <item x="639"/>
+        <item x="640"/>
+        <item x="641"/>
+        <item x="642"/>
+        <item x="643"/>
+        <item x="644"/>
+        <item x="645"/>
+        <item x="646"/>
+        <item x="647"/>
+        <item x="648"/>
+        <item x="649"/>
+        <item x="650"/>
+        <item x="651"/>
+        <item x="652"/>
+        <item x="653"/>
+        <item x="654"/>
+        <item x="655"/>
+        <item x="656"/>
+        <item x="657"/>
+        <item x="658"/>
+        <item x="659"/>
+        <item x="660"/>
+        <item x="661"/>
+        <item x="662"/>
+        <item x="663"/>
+        <item x="664"/>
+        <item x="665"/>
+        <item x="666"/>
+        <item x="667"/>
+        <item x="668"/>
+        <item x="669"/>
+        <item x="670"/>
+        <item x="671"/>
+        <item x="672"/>
+        <item x="673"/>
+        <item x="674"/>
+        <item x="675"/>
+        <item x="676"/>
+        <item x="677"/>
+        <item x="678"/>
+        <item x="679"/>
+        <item x="680"/>
+        <item x="681"/>
+        <item x="682"/>
+        <item x="683"/>
+        <item x="684"/>
+        <item x="685"/>
+        <item x="686"/>
+        <item x="687"/>
+        <item x="688"/>
+        <item x="689"/>
+        <item x="690"/>
+        <item x="691"/>
+        <item x="692"/>
+        <item x="693"/>
+        <item x="694"/>
+        <item x="695"/>
+        <item x="696"/>
+        <item x="697"/>
+        <item x="698"/>
+        <item x="699"/>
+        <item x="700"/>
+        <item x="701"/>
+        <item x="702"/>
+        <item x="703"/>
+        <item x="704"/>
+        <item x="705"/>
+        <item x="706"/>
+        <item x="707"/>
+        <item x="708"/>
+        <item x="709"/>
+        <item x="710"/>
+        <item x="711"/>
+        <item x="712"/>
+        <item x="713"/>
+        <item x="714"/>
+        <item x="715"/>
+        <item x="716"/>
+        <item x="717"/>
+        <item x="718"/>
+        <item x="719"/>
+        <item x="720"/>
+        <item x="721"/>
+        <item x="722"/>
+        <item x="723"/>
+        <item x="724"/>
+        <item x="725"/>
+        <item x="726"/>
+        <item x="727"/>
+        <item x="728"/>
+        <item x="729"/>
+        <item x="730"/>
+        <item x="731"/>
+        <item x="732"/>
+        <item x="733"/>
+        <item x="734"/>
+        <item x="735"/>
+        <item x="736"/>
+        <item x="737"/>
+        <item x="738"/>
+        <item x="739"/>
+        <item x="740"/>
+        <item x="741"/>
+        <item x="742"/>
+        <item x="743"/>
+        <item x="744"/>
+        <item x="745"/>
+        <item x="746"/>
+        <item x="747"/>
+        <item x="748"/>
+        <item x="749"/>
+        <item x="750"/>
+        <item x="751"/>
+        <item x="752"/>
+        <item x="753"/>
+        <item x="754"/>
+        <item x="755"/>
+        <item x="756"/>
+        <item x="757"/>
+        <item x="758"/>
+        <item x="759"/>
+        <item x="760"/>
+        <item x="761"/>
+        <item x="762"/>
+        <item x="763"/>
+        <item x="764"/>
+        <item x="765"/>
+        <item x="766"/>
+        <item x="767"/>
+        <item x="768"/>
+        <item x="769"/>
+        <item x="770"/>
+        <item x="771"/>
+        <item x="772"/>
+        <item x="773"/>
+        <item x="774"/>
+        <item x="775"/>
+        <item x="776"/>
+        <item x="777"/>
+        <item x="778"/>
+        <item x="779"/>
+        <item x="780"/>
+        <item x="781"/>
+        <item x="782"/>
+        <item x="783"/>
+        <item x="784"/>
+        <item x="785"/>
+        <item x="786"/>
+        <item x="787"/>
+        <item x="788"/>
+        <item x="789"/>
+        <item x="790"/>
+        <item x="791"/>
+        <item x="792"/>
+        <item x="793"/>
+        <item x="794"/>
+        <item x="795"/>
+        <item x="796"/>
+        <item x="797"/>
+        <item x="798"/>
+        <item x="799"/>
+        <item x="800"/>
+        <item x="801"/>
+        <item x="802"/>
+        <item x="803"/>
+        <item x="804"/>
+        <item x="805"/>
+        <item x="806"/>
+        <item x="807"/>
+        <item x="808"/>
+        <item x="809"/>
+        <item x="810"/>
+        <item x="811"/>
+        <item x="812"/>
+        <item x="813"/>
+        <item x="814"/>
+        <item x="815"/>
+        <item x="816"/>
+        <item x="817"/>
+        <item x="818"/>
+        <item x="819"/>
+        <item x="820"/>
+        <item x="821"/>
+        <item x="822"/>
+        <item x="823"/>
+        <item x="824"/>
+        <item x="825"/>
+        <item x="826"/>
+        <item x="827"/>
+        <item x="828"/>
+        <item x="829"/>
+        <item x="830"/>
+        <item x="831"/>
+        <item x="832"/>
+        <item x="833"/>
+        <item x="834"/>
+        <item x="835"/>
+        <item x="836"/>
+        <item x="837"/>
+        <item x="838"/>
+        <item x="839"/>
+        <item x="840"/>
+        <item x="841"/>
+        <item x="842"/>
+        <item x="843"/>
+        <item x="844"/>
+        <item x="845"/>
+        <item x="846"/>
+        <item x="847"/>
+        <item x="848"/>
+        <item x="849"/>
+        <item x="850"/>
+        <item x="851"/>
+        <item x="852"/>
+        <item x="853"/>
+        <item x="854"/>
+        <item x="855"/>
+        <item x="856"/>
+        <item x="857"/>
+        <item x="858"/>
+        <item x="859"/>
+        <item x="860"/>
+        <item x="861"/>
+        <item x="862"/>
+        <item x="863"/>
+        <item x="864"/>
+        <item x="865"/>
+        <item x="866"/>
+        <item x="867"/>
+        <item x="868"/>
+        <item x="869"/>
+        <item x="870"/>
+        <item x="871"/>
+        <item x="872"/>
+        <item x="873"/>
+        <item x="874"/>
+        <item x="875"/>
+        <item x="876"/>
+        <item x="877"/>
+        <item x="878"/>
+        <item x="879"/>
+        <item x="880"/>
+        <item x="881"/>
+        <item x="882"/>
+        <item x="883"/>
+        <item x="884"/>
+        <item x="885"/>
+        <item x="886"/>
+        <item x="887"/>
+        <item x="888"/>
+        <item x="889"/>
+        <item x="890"/>
+        <item x="891"/>
+        <item x="892"/>
+        <item x="893"/>
+        <item x="894"/>
+        <item x="895"/>
+        <item x="896"/>
+        <item x="897"/>
+        <item x="898"/>
+        <item x="899"/>
+        <item x="900"/>
+        <item x="901"/>
+        <item x="902"/>
+        <item x="903"/>
+        <item x="904"/>
+        <item x="905"/>
+        <item x="906"/>
+        <item x="907"/>
+        <item x="908"/>
+        <item x="909"/>
+        <item x="910"/>
+        <item x="911"/>
+        <item x="912"/>
+        <item x="913"/>
+        <item x="914"/>
+        <item x="915"/>
+        <item x="916"/>
+        <item x="917"/>
+        <item x="918"/>
+        <item x="919"/>
+        <item x="920"/>
+        <item x="921"/>
+        <item x="922"/>
+        <item x="923"/>
+        <item x="924"/>
+        <item x="925"/>
+        <item x="926"/>
+        <item x="927"/>
+        <item x="928"/>
+        <item x="929"/>
+        <item x="930"/>
+        <item x="931"/>
+        <item x="932"/>
+        <item x="933"/>
+        <item x="934"/>
+        <item x="935"/>
+        <item x="936"/>
+        <item x="937"/>
+        <item x="938"/>
+        <item x="939"/>
+        <item x="940"/>
+        <item x="941"/>
+        <item x="942"/>
+        <item x="943"/>
+        <item x="944"/>
+        <item x="945"/>
+        <item x="946"/>
+        <item x="947"/>
+        <item x="948"/>
+        <item x="949"/>
+        <item x="950"/>
+        <item x="951"/>
+        <item x="952"/>
+        <item x="953"/>
+        <item x="954"/>
+        <item x="955"/>
+        <item x="956"/>
+        <item x="957"/>
+        <item x="958"/>
+        <item x="959"/>
+        <item x="960"/>
+        <item x="961"/>
+        <item x="962"/>
+        <item x="963"/>
+        <item x="964"/>
+        <item x="965"/>
+        <item x="966"/>
+        <item x="967"/>
+        <item x="968"/>
+        <item x="969"/>
+        <item x="970"/>
+        <item x="971"/>
+        <item x="972"/>
+        <item x="973"/>
+        <item x="974"/>
+        <item x="975"/>
+        <item x="976"/>
+        <item x="977"/>
+        <item x="978"/>
+        <item x="979"/>
+        <item x="980"/>
+        <item x="981"/>
+        <item x="982"/>
+        <item x="983"/>
+        <item x="984"/>
+        <item x="985"/>
+        <item x="986"/>
+        <item x="987"/>
+        <item x="988"/>
+        <item x="989"/>
+        <item x="990"/>
+        <item x="991"/>
+        <item x="992"/>
+        <item x="993"/>
+        <item x="994"/>
+        <item x="995"/>
+        <item x="996"/>
+        <item x="997"/>
+        <item x="998"/>
+        <item x="999"/>
+        <item x="1000"/>
+        <item x="1001"/>
+        <item x="1002"/>
+        <item x="1003"/>
+        <item x="1004"/>
+        <item x="1005"/>
+        <item x="1006"/>
+        <item x="1007"/>
+        <item x="1008"/>
+        <item x="1009"/>
+        <item x="1010"/>
+        <item x="1011"/>
+        <item x="1012"/>
+        <item x="1013"/>
+        <item x="1014"/>
+        <item x="1015"/>
+        <item x="1016"/>
+        <item x="1017"/>
+        <item x="1018"/>
+        <item x="1019"/>
+        <item x="1020"/>
+        <item x="1021"/>
+        <item x="1022"/>
+        <item x="1023"/>
+        <item x="1024"/>
+        <item x="1025"/>
+        <item x="1026"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="7">
         <item h="1" x="5"/>
         <item h="1" x="3"/>
         <item h="1" x="1"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item h="1" x="2"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -32938,49 +35207,49 @@
   </colFields>
   <colItems count="1">
     <i>
-      <x v="3"/>
+      <x v="5"/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Valor do Pedido" fld="4" baseField="0" baseItem="0" numFmtId="167"/>
+    <dataField name="Sum of Valor do Pedido" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="173">
+    <format dxfId="230">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="174">
+    <format dxfId="229">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="175">
+    <format dxfId="228">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="176">
+    <format dxfId="227">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="177">
+    <format dxfId="226">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="178">
+    <format dxfId="225">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="179">
+    <format dxfId="224">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="180">
+    <format dxfId="223">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="181">
+    <format dxfId="222">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="182">
+    <format dxfId="221">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -33056,6 +35325,23 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="41" name="Data">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="43101"/>
+            <customFilter operator="lessThanOrEqual" val="43190"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -33068,10 +35354,1041 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17297D42-09B6-40B9-BD86-B276C849417B}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17297D42-09B6-40B9-BD86-B276C849417B}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:A2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="6">
-    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="1028">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+        <item x="413"/>
+        <item x="414"/>
+        <item x="415"/>
+        <item x="416"/>
+        <item x="417"/>
+        <item x="418"/>
+        <item x="419"/>
+        <item x="420"/>
+        <item x="421"/>
+        <item x="422"/>
+        <item x="423"/>
+        <item x="424"/>
+        <item x="425"/>
+        <item x="426"/>
+        <item x="427"/>
+        <item x="428"/>
+        <item x="429"/>
+        <item x="430"/>
+        <item x="431"/>
+        <item x="432"/>
+        <item x="433"/>
+        <item x="434"/>
+        <item x="435"/>
+        <item x="436"/>
+        <item x="437"/>
+        <item x="438"/>
+        <item x="439"/>
+        <item x="440"/>
+        <item x="441"/>
+        <item x="442"/>
+        <item x="443"/>
+        <item x="444"/>
+        <item x="445"/>
+        <item x="446"/>
+        <item x="447"/>
+        <item x="448"/>
+        <item x="449"/>
+        <item x="450"/>
+        <item x="451"/>
+        <item x="452"/>
+        <item x="453"/>
+        <item x="454"/>
+        <item x="455"/>
+        <item x="456"/>
+        <item x="457"/>
+        <item x="458"/>
+        <item x="459"/>
+        <item x="460"/>
+        <item x="461"/>
+        <item x="462"/>
+        <item x="463"/>
+        <item x="464"/>
+        <item x="465"/>
+        <item x="466"/>
+        <item x="467"/>
+        <item x="468"/>
+        <item x="469"/>
+        <item x="470"/>
+        <item x="471"/>
+        <item x="472"/>
+        <item x="473"/>
+        <item x="474"/>
+        <item x="475"/>
+        <item x="476"/>
+        <item x="477"/>
+        <item x="478"/>
+        <item x="479"/>
+        <item x="480"/>
+        <item x="481"/>
+        <item x="482"/>
+        <item x="483"/>
+        <item x="484"/>
+        <item x="485"/>
+        <item x="486"/>
+        <item x="487"/>
+        <item x="488"/>
+        <item x="489"/>
+        <item x="490"/>
+        <item x="491"/>
+        <item x="492"/>
+        <item x="493"/>
+        <item x="494"/>
+        <item x="495"/>
+        <item x="496"/>
+        <item x="497"/>
+        <item x="498"/>
+        <item x="499"/>
+        <item x="500"/>
+        <item x="501"/>
+        <item x="502"/>
+        <item x="503"/>
+        <item x="504"/>
+        <item x="505"/>
+        <item x="506"/>
+        <item x="507"/>
+        <item x="508"/>
+        <item x="509"/>
+        <item x="510"/>
+        <item x="511"/>
+        <item x="512"/>
+        <item x="513"/>
+        <item x="514"/>
+        <item x="515"/>
+        <item x="516"/>
+        <item x="517"/>
+        <item x="518"/>
+        <item x="519"/>
+        <item x="520"/>
+        <item x="521"/>
+        <item x="522"/>
+        <item x="523"/>
+        <item x="524"/>
+        <item x="525"/>
+        <item x="526"/>
+        <item x="527"/>
+        <item x="528"/>
+        <item x="529"/>
+        <item x="530"/>
+        <item x="531"/>
+        <item x="532"/>
+        <item x="533"/>
+        <item x="534"/>
+        <item x="535"/>
+        <item x="536"/>
+        <item x="537"/>
+        <item x="538"/>
+        <item x="539"/>
+        <item x="540"/>
+        <item x="541"/>
+        <item x="542"/>
+        <item x="543"/>
+        <item x="544"/>
+        <item x="545"/>
+        <item x="546"/>
+        <item x="547"/>
+        <item x="548"/>
+        <item x="549"/>
+        <item x="550"/>
+        <item x="551"/>
+        <item x="552"/>
+        <item x="553"/>
+        <item x="554"/>
+        <item x="555"/>
+        <item x="556"/>
+        <item x="557"/>
+        <item x="558"/>
+        <item x="559"/>
+        <item x="560"/>
+        <item x="561"/>
+        <item x="562"/>
+        <item x="563"/>
+        <item x="564"/>
+        <item x="565"/>
+        <item x="566"/>
+        <item x="567"/>
+        <item x="568"/>
+        <item x="569"/>
+        <item x="570"/>
+        <item x="571"/>
+        <item x="572"/>
+        <item x="573"/>
+        <item x="574"/>
+        <item x="575"/>
+        <item x="576"/>
+        <item x="577"/>
+        <item x="578"/>
+        <item x="579"/>
+        <item x="580"/>
+        <item x="581"/>
+        <item x="582"/>
+        <item x="583"/>
+        <item x="584"/>
+        <item x="585"/>
+        <item x="586"/>
+        <item x="587"/>
+        <item x="588"/>
+        <item x="589"/>
+        <item x="590"/>
+        <item x="591"/>
+        <item x="592"/>
+        <item x="593"/>
+        <item x="594"/>
+        <item x="595"/>
+        <item x="596"/>
+        <item x="597"/>
+        <item x="598"/>
+        <item x="599"/>
+        <item x="600"/>
+        <item x="601"/>
+        <item x="602"/>
+        <item x="603"/>
+        <item x="604"/>
+        <item x="605"/>
+        <item x="606"/>
+        <item x="607"/>
+        <item x="608"/>
+        <item x="609"/>
+        <item x="610"/>
+        <item x="611"/>
+        <item x="612"/>
+        <item x="613"/>
+        <item x="614"/>
+        <item x="615"/>
+        <item x="616"/>
+        <item x="617"/>
+        <item x="618"/>
+        <item x="619"/>
+        <item x="620"/>
+        <item x="621"/>
+        <item x="622"/>
+        <item x="623"/>
+        <item x="624"/>
+        <item x="625"/>
+        <item x="626"/>
+        <item x="627"/>
+        <item x="628"/>
+        <item x="629"/>
+        <item x="630"/>
+        <item x="631"/>
+        <item x="632"/>
+        <item x="633"/>
+        <item x="634"/>
+        <item x="635"/>
+        <item x="636"/>
+        <item x="637"/>
+        <item x="638"/>
+        <item x="639"/>
+        <item x="640"/>
+        <item x="641"/>
+        <item x="642"/>
+        <item x="643"/>
+        <item x="644"/>
+        <item x="645"/>
+        <item x="646"/>
+        <item x="647"/>
+        <item x="648"/>
+        <item x="649"/>
+        <item x="650"/>
+        <item x="651"/>
+        <item x="652"/>
+        <item x="653"/>
+        <item x="654"/>
+        <item x="655"/>
+        <item x="656"/>
+        <item x="657"/>
+        <item x="658"/>
+        <item x="659"/>
+        <item x="660"/>
+        <item x="661"/>
+        <item x="662"/>
+        <item x="663"/>
+        <item x="664"/>
+        <item x="665"/>
+        <item x="666"/>
+        <item x="667"/>
+        <item x="668"/>
+        <item x="669"/>
+        <item x="670"/>
+        <item x="671"/>
+        <item x="672"/>
+        <item x="673"/>
+        <item x="674"/>
+        <item x="675"/>
+        <item x="676"/>
+        <item x="677"/>
+        <item x="678"/>
+        <item x="679"/>
+        <item x="680"/>
+        <item x="681"/>
+        <item x="682"/>
+        <item x="683"/>
+        <item x="684"/>
+        <item x="685"/>
+        <item x="686"/>
+        <item x="687"/>
+        <item x="688"/>
+        <item x="689"/>
+        <item x="690"/>
+        <item x="691"/>
+        <item x="692"/>
+        <item x="693"/>
+        <item x="694"/>
+        <item x="695"/>
+        <item x="696"/>
+        <item x="697"/>
+        <item x="698"/>
+        <item x="699"/>
+        <item x="700"/>
+        <item x="701"/>
+        <item x="702"/>
+        <item x="703"/>
+        <item x="704"/>
+        <item x="705"/>
+        <item x="706"/>
+        <item x="707"/>
+        <item x="708"/>
+        <item x="709"/>
+        <item x="710"/>
+        <item x="711"/>
+        <item x="712"/>
+        <item x="713"/>
+        <item x="714"/>
+        <item x="715"/>
+        <item x="716"/>
+        <item x="717"/>
+        <item x="718"/>
+        <item x="719"/>
+        <item x="720"/>
+        <item x="721"/>
+        <item x="722"/>
+        <item x="723"/>
+        <item x="724"/>
+        <item x="725"/>
+        <item x="726"/>
+        <item x="727"/>
+        <item x="728"/>
+        <item x="729"/>
+        <item x="730"/>
+        <item x="731"/>
+        <item x="732"/>
+        <item x="733"/>
+        <item x="734"/>
+        <item x="735"/>
+        <item x="736"/>
+        <item x="737"/>
+        <item x="738"/>
+        <item x="739"/>
+        <item x="740"/>
+        <item x="741"/>
+        <item x="742"/>
+        <item x="743"/>
+        <item x="744"/>
+        <item x="745"/>
+        <item x="746"/>
+        <item x="747"/>
+        <item x="748"/>
+        <item x="749"/>
+        <item x="750"/>
+        <item x="751"/>
+        <item x="752"/>
+        <item x="753"/>
+        <item x="754"/>
+        <item x="755"/>
+        <item x="756"/>
+        <item x="757"/>
+        <item x="758"/>
+        <item x="759"/>
+        <item x="760"/>
+        <item x="761"/>
+        <item x="762"/>
+        <item x="763"/>
+        <item x="764"/>
+        <item x="765"/>
+        <item x="766"/>
+        <item x="767"/>
+        <item x="768"/>
+        <item x="769"/>
+        <item x="770"/>
+        <item x="771"/>
+        <item x="772"/>
+        <item x="773"/>
+        <item x="774"/>
+        <item x="775"/>
+        <item x="776"/>
+        <item x="777"/>
+        <item x="778"/>
+        <item x="779"/>
+        <item x="780"/>
+        <item x="781"/>
+        <item x="782"/>
+        <item x="783"/>
+        <item x="784"/>
+        <item x="785"/>
+        <item x="786"/>
+        <item x="787"/>
+        <item x="788"/>
+        <item x="789"/>
+        <item x="790"/>
+        <item x="791"/>
+        <item x="792"/>
+        <item x="793"/>
+        <item x="794"/>
+        <item x="795"/>
+        <item x="796"/>
+        <item x="797"/>
+        <item x="798"/>
+        <item x="799"/>
+        <item x="800"/>
+        <item x="801"/>
+        <item x="802"/>
+        <item x="803"/>
+        <item x="804"/>
+        <item x="805"/>
+        <item x="806"/>
+        <item x="807"/>
+        <item x="808"/>
+        <item x="809"/>
+        <item x="810"/>
+        <item x="811"/>
+        <item x="812"/>
+        <item x="813"/>
+        <item x="814"/>
+        <item x="815"/>
+        <item x="816"/>
+        <item x="817"/>
+        <item x="818"/>
+        <item x="819"/>
+        <item x="820"/>
+        <item x="821"/>
+        <item x="822"/>
+        <item x="823"/>
+        <item x="824"/>
+        <item x="825"/>
+        <item x="826"/>
+        <item x="827"/>
+        <item x="828"/>
+        <item x="829"/>
+        <item x="830"/>
+        <item x="831"/>
+        <item x="832"/>
+        <item x="833"/>
+        <item x="834"/>
+        <item x="835"/>
+        <item x="836"/>
+        <item x="837"/>
+        <item x="838"/>
+        <item x="839"/>
+        <item x="840"/>
+        <item x="841"/>
+        <item x="842"/>
+        <item x="843"/>
+        <item x="844"/>
+        <item x="845"/>
+        <item x="846"/>
+        <item x="847"/>
+        <item x="848"/>
+        <item x="849"/>
+        <item x="850"/>
+        <item x="851"/>
+        <item x="852"/>
+        <item x="853"/>
+        <item x="854"/>
+        <item x="855"/>
+        <item x="856"/>
+        <item x="857"/>
+        <item x="858"/>
+        <item x="859"/>
+        <item x="860"/>
+        <item x="861"/>
+        <item x="862"/>
+        <item x="863"/>
+        <item x="864"/>
+        <item x="865"/>
+        <item x="866"/>
+        <item x="867"/>
+        <item x="868"/>
+        <item x="869"/>
+        <item x="870"/>
+        <item x="871"/>
+        <item x="872"/>
+        <item x="873"/>
+        <item x="874"/>
+        <item x="875"/>
+        <item x="876"/>
+        <item x="877"/>
+        <item x="878"/>
+        <item x="879"/>
+        <item x="880"/>
+        <item x="881"/>
+        <item x="882"/>
+        <item x="883"/>
+        <item x="884"/>
+        <item x="885"/>
+        <item x="886"/>
+        <item x="887"/>
+        <item x="888"/>
+        <item x="889"/>
+        <item x="890"/>
+        <item x="891"/>
+        <item x="892"/>
+        <item x="893"/>
+        <item x="894"/>
+        <item x="895"/>
+        <item x="896"/>
+        <item x="897"/>
+        <item x="898"/>
+        <item x="899"/>
+        <item x="900"/>
+        <item x="901"/>
+        <item x="902"/>
+        <item x="903"/>
+        <item x="904"/>
+        <item x="905"/>
+        <item x="906"/>
+        <item x="907"/>
+        <item x="908"/>
+        <item x="909"/>
+        <item x="910"/>
+        <item x="911"/>
+        <item x="912"/>
+        <item x="913"/>
+        <item x="914"/>
+        <item x="915"/>
+        <item x="916"/>
+        <item x="917"/>
+        <item x="918"/>
+        <item x="919"/>
+        <item x="920"/>
+        <item x="921"/>
+        <item x="922"/>
+        <item x="923"/>
+        <item x="924"/>
+        <item x="925"/>
+        <item x="926"/>
+        <item x="927"/>
+        <item x="928"/>
+        <item x="929"/>
+        <item x="930"/>
+        <item x="931"/>
+        <item x="932"/>
+        <item x="933"/>
+        <item x="934"/>
+        <item x="935"/>
+        <item x="936"/>
+        <item x="937"/>
+        <item x="938"/>
+        <item x="939"/>
+        <item x="940"/>
+        <item x="941"/>
+        <item x="942"/>
+        <item x="943"/>
+        <item x="944"/>
+        <item x="945"/>
+        <item x="946"/>
+        <item x="947"/>
+        <item x="948"/>
+        <item x="949"/>
+        <item x="950"/>
+        <item x="951"/>
+        <item x="952"/>
+        <item x="953"/>
+        <item x="954"/>
+        <item x="955"/>
+        <item x="956"/>
+        <item x="957"/>
+        <item x="958"/>
+        <item x="959"/>
+        <item x="960"/>
+        <item x="961"/>
+        <item x="962"/>
+        <item x="963"/>
+        <item x="964"/>
+        <item x="965"/>
+        <item x="966"/>
+        <item x="967"/>
+        <item x="968"/>
+        <item x="969"/>
+        <item x="970"/>
+        <item x="971"/>
+        <item x="972"/>
+        <item x="973"/>
+        <item x="974"/>
+        <item x="975"/>
+        <item x="976"/>
+        <item x="977"/>
+        <item x="978"/>
+        <item x="979"/>
+        <item x="980"/>
+        <item x="981"/>
+        <item x="982"/>
+        <item x="983"/>
+        <item x="984"/>
+        <item x="985"/>
+        <item x="986"/>
+        <item x="987"/>
+        <item x="988"/>
+        <item x="989"/>
+        <item x="990"/>
+        <item x="991"/>
+        <item x="992"/>
+        <item x="993"/>
+        <item x="994"/>
+        <item x="995"/>
+        <item x="996"/>
+        <item x="997"/>
+        <item x="998"/>
+        <item x="999"/>
+        <item x="1000"/>
+        <item x="1001"/>
+        <item x="1002"/>
+        <item x="1003"/>
+        <item x="1004"/>
+        <item x="1005"/>
+        <item x="1006"/>
+        <item x="1007"/>
+        <item x="1008"/>
+        <item x="1009"/>
+        <item x="1010"/>
+        <item x="1011"/>
+        <item x="1012"/>
+        <item x="1013"/>
+        <item x="1014"/>
+        <item x="1015"/>
+        <item x="1016"/>
+        <item x="1017"/>
+        <item x="1018"/>
+        <item x="1019"/>
+        <item x="1020"/>
+        <item x="1021"/>
+        <item x="1022"/>
+        <item x="1023"/>
+        <item x="1024"/>
+        <item x="1025"/>
+        <item x="1026"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -33085,14 +36402,31 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Valor do Pedido" fld="4" baseField="0" baseItem="0" numFmtId="167"/>
+    <dataField name="Sum of Valor do Pedido" fld="4" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="172">
+    <format dxfId="220">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="0" type="dateBetween" evalOrder="-1" id="41" name="Data">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters and="1">
+            <customFilter operator="greaterThanOrEqual" val="43101"/>
+            <customFilter operator="lessThanOrEqual" val="43190"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{0605FD5F-26C8-4aeb-8148-2DB25E43C511}">
+          <x15:pivotFilter useWholeDay="1"/>
+        </ext>
+      </extLst>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -33117,9 +36451,9 @@
         <i x="5"/>
         <i x="3"/>
         <i x="1"/>
-        <i x="0" s="1"/>
+        <i x="0"/>
         <i x="2"/>
-        <i x="4"/>
+        <i x="4" s="1"/>
       </items>
     </tabular>
   </data>
@@ -33431,9 +36765,12 @@
 <timelineCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="xr10" name="NativeTimeline_Data" xr10:uid="{41BB7B7B-33BA-4B06-A7EB-6475A1B8CCAE}" sourceName="Data">
   <pivotTables>
     <pivotTable tabId="2" name="analyse1"/>
+    <pivotTable tabId="5" name="analyse2"/>
+    <pivotTable tabId="6" name="analyse3"/>
+    <pivotTable tabId="7" name="PivotTable4"/>
   </pivotTables>
   <state minimalRefreshVersion="6" lastRefreshVersion="6" pivotCacheId="1439028105" filterType="dateBetween">
-    <selection startDate="2018-11-01T00:00:00" endDate="2019-02-28T00:00:00"/>
+    <selection startDate="2018-01-01T00:00:00" endDate="2018-03-31T00:00:00"/>
     <bounds startDate="2017-01-01T00:00:00" endDate="2021-01-01T00:00:00"/>
   </state>
 </timelineCacheDefinition>
@@ -33441,7 +36778,7 @@
 
 <file path=xl/timelines/timeline1.xml><?xml version="1.0" encoding="utf-8"?>
 <timelines xmlns="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <timeline name="Data 1" xr10:uid="{23B42B2B-B838-4A0A-9F5F-56F324C766A5}" cache="NativeTimeline_Data" caption="Data" level="2" selectionLevel="2" scrollPosition="2018-11-01T00:00:00" style="TimeSlicerStyleLight4"/>
+  <timeline name="Data 1" xr10:uid="{23B42B2B-B838-4A0A-9F5F-56F324C766A5}" cache="NativeTimeline_Data" caption="Data" level="1" selectionLevel="1" scrollPosition="2017-01-01T00:00:00" style="TimeSlicerStyleLight4"/>
 </timelines>
 </file>
 
@@ -33471,10 +36808,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="10">
-        <v>752000</v>
+        <v>535000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -33482,7 +36819,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="10">
-        <v>235000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -33490,7 +36827,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="10">
-        <v>36000</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -33498,7 +36835,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="10">
-        <v>92000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -33506,7 +36843,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="10">
-        <v>117000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -33514,7 +36851,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="10">
-        <v>245000</v>
+        <v>232000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -33522,7 +36859,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="10">
-        <v>27000</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -33530,7 +36867,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="10">
-        <v>752000</v>
+        <v>535000</v>
       </c>
     </row>
   </sheetData>
@@ -33570,7 +36907,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -33582,7 +36919,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="12">
-        <v>165</v>
+        <v>8</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -33594,7 +36931,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="12">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -33606,7 +36943,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="12">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -33618,7 +36955,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="12">
-        <v>501</v>
+        <v>32</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -33719,7 +37056,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -33732,7 +37069,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="14">
-        <v>1137000</v>
+        <v>71000</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -33745,7 +37082,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="14">
-        <v>942000</v>
+        <v>167000</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -33758,7 +37095,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="14">
-        <v>1881000</v>
+        <v>128000</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -33771,7 +37108,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="14">
-        <v>2279000</v>
+        <v>160000</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -33784,7 +37121,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="14">
-        <v>976000</v>
+        <v>9000</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -33826,7 +37163,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>52742000</v>
+        <v>4012000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -33835,7 +37172,7 @@
       </c>
       <c r="B4" s="10">
         <f>A2</f>
-        <v>52742000</v>
+        <v>4012000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -33844,67 +37181,67 @@
       </c>
       <c r="B5" t="str">
         <f>Graph1!A2</f>
-        <v>Rio de Janeiro</v>
+        <v>São Paulo</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>"Vendas "&amp;B5</f>
-        <v>Vendas Rio de Janeiro</v>
+        <v>Vendas São Paulo</v>
       </c>
       <c r="B6" s="16">
         <f>Graph1!B2</f>
-        <v>752000</v>
+        <v>535000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>"% "&amp;B5</f>
-        <v>% Rio de Janeiro</v>
+        <v>% São Paulo</v>
       </c>
       <c r="B7" s="17">
         <f>(B6/B4)</f>
-        <v>1.4258086534450723E-2</v>
+        <v>0.13334995014955134</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>"Unidades "&amp;B5</f>
-        <v>Unidades Rio de Janeiro</v>
+        <v>Unidades São Paulo</v>
       </c>
       <c r="B8">
         <f>Graph2!B6</f>
-        <v>501</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>"100ml "&amp;B5</f>
-        <v>100ml Rio de Janeiro</v>
+        <v>100ml São Paulo</v>
       </c>
       <c r="B9">
         <f>Graph2!B3</f>
-        <v>165</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>"200ml "&amp;B5</f>
-        <v>200ml Rio de Janeiro</v>
+        <v>200ml São Paulo</v>
       </c>
       <c r="B10">
         <f>Graph2!B4</f>
-        <v>159</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>"300ml "&amp;B5</f>
-        <v>300ml Rio de Janeiro</v>
+        <v>300ml São Paulo</v>
       </c>
       <c r="B11">
         <f>Graph2!B5</f>
-        <v>177</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
